--- a/PROJECT/Project with Excel and Statistics.xlsx
+++ b/PROJECT/Project with Excel and Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\KRISHNA NEW\krish\Krishna-pyth\PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAB694-61A2-4FCC-AB89-213B98D6E5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B2B59-01EB-4B13-9BD9-A5D3DE2EC5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5899" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5518" uniqueCount="73">
   <si>
     <t>STUDENTS REPORT CARD</t>
   </si>
@@ -1096,7 +1096,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1125,6 +1149,66 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1157,13 +1241,30 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1536,6 +1637,47 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4317,13 +4459,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H19 AA5:AC19">
-    <cfRule type="expression" dxfId="38" priority="191">
+    <cfRule type="expression" dxfId="50" priority="191">
       <formula>#REF!="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="192">
+    <cfRule type="expression" dxfId="49" priority="192">
       <formula>#REF!="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="193">
+    <cfRule type="expression" dxfId="48" priority="193">
       <formula>IF(H4,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6148,18 +6290,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:F19 H5:H19 J5:J19 Q5:T19 W5:Y19 AA5:AA19 AE5:AE19">
-    <cfRule type="expression" dxfId="35" priority="197">
+    <cfRule type="expression" dxfId="47" priority="197">
       <formula>#REF!="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="198">
+    <cfRule type="expression" dxfId="46" priority="198">
       <formula>#REF!="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="199">
+    <cfRule type="expression" dxfId="45" priority="199">
       <formula>IF(C4,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="44" priority="28">
       <formula>#REF!="A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7982,18 +8124,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H19 Y5:Y19">
-    <cfRule type="expression" dxfId="31" priority="202">
+    <cfRule type="expression" dxfId="43" priority="202">
       <formula>#REF!="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="203">
+    <cfRule type="expression" dxfId="42" priority="203">
       <formula>#REF!="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="204">
+    <cfRule type="expression" dxfId="41" priority="204">
       <formula>IF(H4,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB19">
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="40" priority="17">
       <formula>#REF!="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9818,13 +9960,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H19 K5:K19 V5:W19">
-    <cfRule type="expression" dxfId="27" priority="206">
+    <cfRule type="expression" dxfId="39" priority="206">
       <formula>#REF!="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="207">
+    <cfRule type="expression" dxfId="38" priority="207">
       <formula>#REF!="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="208">
+    <cfRule type="expression" dxfId="37" priority="208">
       <formula>IF(H4,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9836,8 +9978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E98E6E9-C761-4354-A0E8-637FDC3D03EE}">
   <dimension ref="A1:BE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9925,7 +10067,7 @@
       <c r="W2" s="69"/>
       <c r="X2" s="69"/>
       <c r="Y2" s="72">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="Z2" s="72"/>
       <c r="AA2" s="72"/>
@@ -9939,7 +10081,7 @@
       <c r="AG2" s="69"/>
       <c r="AH2" s="73">
         <f>EOMONTH(Y2,0)</f>
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="AI2" s="73"/>
       <c r="AJ2" s="73"/>
@@ -9974,7 +10116,7 @@
       <c r="X3" s="69"/>
       <c r="Y3" s="74">
         <f>Y2</f>
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="Z3" s="74"/>
       <c r="AA3" s="74"/>
@@ -9988,7 +10130,7 @@
       <c r="AG3" s="69"/>
       <c r="AH3" s="74">
         <f>AH2</f>
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="AI3" s="74"/>
       <c r="AJ3" s="74"/>
@@ -10045,127 +10187,127 @@
       </c>
       <c r="D5" s="81">
         <f>Y2</f>
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="E5" s="81">
         <f>IF(D5&lt;$AH$2,D5+1,"")</f>
-        <v>44987</v>
+        <v>44928</v>
       </c>
       <c r="F5" s="81">
-        <f t="shared" ref="E5:AH5" si="0">IF(E5&lt;$AH$2,E5+1,"")</f>
-        <v>44988</v>
+        <f t="shared" ref="F5:AH5" si="0">IF(E5&lt;$AH$2,E5+1,"")</f>
+        <v>44929</v>
       </c>
       <c r="G5" s="81">
         <f t="shared" si="0"/>
-        <v>44989</v>
+        <v>44930</v>
       </c>
       <c r="H5" s="81">
         <f t="shared" si="0"/>
-        <v>44990</v>
+        <v>44931</v>
       </c>
       <c r="I5" s="81">
         <f t="shared" si="0"/>
-        <v>44991</v>
+        <v>44932</v>
       </c>
       <c r="J5" s="81">
         <f t="shared" si="0"/>
-        <v>44992</v>
+        <v>44933</v>
       </c>
       <c r="K5" s="81">
         <f t="shared" si="0"/>
-        <v>44993</v>
+        <v>44934</v>
       </c>
       <c r="L5" s="81">
         <f t="shared" si="0"/>
-        <v>44994</v>
+        <v>44935</v>
       </c>
       <c r="M5" s="81">
         <f t="shared" si="0"/>
-        <v>44995</v>
+        <v>44936</v>
       </c>
       <c r="N5" s="81">
         <f t="shared" si="0"/>
-        <v>44996</v>
+        <v>44937</v>
       </c>
       <c r="O5" s="81">
         <f t="shared" si="0"/>
-        <v>44997</v>
+        <v>44938</v>
       </c>
       <c r="P5" s="81">
         <f t="shared" si="0"/>
-        <v>44998</v>
+        <v>44939</v>
       </c>
       <c r="Q5" s="81">
         <f t="shared" si="0"/>
-        <v>44999</v>
+        <v>44940</v>
       </c>
       <c r="R5" s="81">
         <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>44941</v>
       </c>
       <c r="S5" s="81">
         <f t="shared" si="0"/>
-        <v>45001</v>
+        <v>44942</v>
       </c>
       <c r="T5" s="81">
         <f t="shared" si="0"/>
-        <v>45002</v>
+        <v>44943</v>
       </c>
       <c r="U5" s="81">
         <f t="shared" si="0"/>
-        <v>45003</v>
+        <v>44944</v>
       </c>
       <c r="V5" s="81">
         <f t="shared" si="0"/>
-        <v>45004</v>
+        <v>44945</v>
       </c>
       <c r="W5" s="81">
         <f t="shared" si="0"/>
-        <v>45005</v>
+        <v>44946</v>
       </c>
       <c r="X5" s="81">
         <f t="shared" si="0"/>
-        <v>45006</v>
+        <v>44947</v>
       </c>
       <c r="Y5" s="81">
         <f t="shared" si="0"/>
-        <v>45007</v>
+        <v>44948</v>
       </c>
       <c r="Z5" s="81">
         <f t="shared" si="0"/>
-        <v>45008</v>
+        <v>44949</v>
       </c>
       <c r="AA5" s="81">
         <f t="shared" si="0"/>
-        <v>45009</v>
+        <v>44950</v>
       </c>
       <c r="AB5" s="81">
         <f t="shared" si="0"/>
-        <v>45010</v>
+        <v>44951</v>
       </c>
       <c r="AC5" s="81">
         <f t="shared" si="0"/>
-        <v>45011</v>
+        <v>44952</v>
       </c>
       <c r="AD5" s="81">
         <f t="shared" si="0"/>
-        <v>45012</v>
+        <v>44953</v>
       </c>
       <c r="AE5" s="81">
         <f t="shared" si="0"/>
-        <v>45013</v>
+        <v>44954</v>
       </c>
       <c r="AF5" s="81">
         <f t="shared" si="0"/>
-        <v>45014</v>
+        <v>44955</v>
       </c>
       <c r="AG5" s="81">
         <f t="shared" si="0"/>
-        <v>45015</v>
+        <v>44956</v>
       </c>
       <c r="AH5" s="81">
         <f t="shared" si="0"/>
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="AI5" s="87"/>
       <c r="AJ5" s="87"/>
@@ -10177,127 +10319,127 @@
       <c r="C6" s="84"/>
       <c r="D6" s="83" t="str">
         <f>TEXT(D5,"DDD")</f>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="E6" s="82" t="str">
         <f>TEXT(E5,"dddd")</f>
-        <v>Thursday</v>
+        <v>Monday</v>
       </c>
       <c r="F6" s="82" t="str">
         <f t="shared" ref="F6:AH6" si="1">TEXT(F5,"ddd")</f>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="G6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="H6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="I6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="J6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="K6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="L6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="M6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="N6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="O6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="P6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="Q6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="R6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="S6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="T6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="U6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="V6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="W6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="X6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="Y6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="Z6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="AA6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="AB6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Sat</v>
+        <v>Wed</v>
       </c>
       <c r="AC6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Sun</v>
+        <v>Thu</v>
       </c>
       <c r="AD6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="AE6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="AF6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Wed</v>
+        <v>Sun</v>
       </c>
       <c r="AG6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Thu</v>
+        <v>Mon</v>
       </c>
       <c r="AH6" s="82" t="str">
         <f t="shared" si="1"/>
-        <v>Fri</v>
+        <v>Tue</v>
       </c>
       <c r="AI6" s="31" t="s">
         <v>39</v>
@@ -10368,127 +10510,127 @@
       <c r="C7" s="85"/>
       <c r="D7" s="86">
         <f>IF(D5&lt;=$AH$2,WEEKDAY($D$5),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="86">
         <f>IF(E5&lt;=$AH$2,WEEKDAY(E5),0)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="86">
         <f t="shared" ref="F7:AH7" si="2">IF(F5&lt;=$AH$2,WEEKDAY(F5),0)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="86">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" s="86">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="86">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J7" s="86">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K7" s="86">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" s="86">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7" s="86">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N7" s="86">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O7" s="86">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P7" s="86">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="86">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R7" s="86">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S7" s="86">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T7" s="86">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U7" s="86">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V7" s="86">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W7" s="86">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X7" s="86">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="86">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="86">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="86">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="86">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC7" s="86">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD7" s="86">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE7" s="86">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF7" s="86">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="86">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="86">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="31"/>
       <c r="AJ7" s="31"/>
@@ -10560,11 +10702,11 @@
         <v>1</v>
       </c>
       <c r="D8" s="37" t="str">
-        <f>IF(D7=0," ",IF(C8=D6,"A","P"))</f>
-        <v>P</v>
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
       </c>
       <c r="E8" s="37" t="str">
-        <f t="shared" ref="E8:P8" si="3">IF(E7=0," ",IF(D8=E6,"A","P"))</f>
+        <f t="shared" ref="E8:L22" si="3">IF(E7=0," ",IF($C$8=E7,"A","P"))</f>
         <v>P</v>
       </c>
       <c r="F8" s="37" t="str">
@@ -10589,82 +10731,107 @@
       </c>
       <c r="K8" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>P</v>
+        <v>A</v>
       </c>
       <c r="L8" s="37" t="str">
         <f t="shared" si="3"/>
         <v>P</v>
       </c>
       <c r="M8" s="37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M8" si="4">IF(M7=0," ",IF($C$8=M7,"A","P"))</f>
         <v>P</v>
       </c>
       <c r="N8" s="37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N8" si="5">IF(N7=0," ",IF($C$8=N7,"A","P"))</f>
         <v>P</v>
       </c>
       <c r="O8" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>P</v>
-      </c>
-      <c r="P8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="39"/>
-      <c r="S8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB8" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH8" s="38" t="s">
-        <v>30</v>
+        <f t="shared" ref="O8" si="6">IF(O7=0," ",IF($C$8=O7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="P8" s="37" t="str">
+        <f t="shared" ref="P8" si="7">IF(P7=0," ",IF($C$8=P7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="Q8" s="37" t="str">
+        <f t="shared" ref="Q8" si="8">IF(Q7=0," ",IF($C$8=Q7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="R8" s="37" t="str">
+        <f t="shared" ref="R8" si="9">IF(R7=0," ",IF($C$8=R7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="S8" s="37" t="str">
+        <f t="shared" ref="S8:T8" si="10">IF(S7=0," ",IF($C$8=S7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="T8" s="37" t="str">
+        <f t="shared" si="10"/>
+        <v>P</v>
+      </c>
+      <c r="U8" s="37" t="str">
+        <f t="shared" ref="U8" si="11">IF(U7=0," ",IF($C$8=U7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="V8" s="37" t="str">
+        <f t="shared" ref="V8" si="12">IF(V7=0," ",IF($C$8=V7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="W8" s="37" t="str">
+        <f t="shared" ref="W8" si="13">IF(W7=0," ",IF($C$8=W7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="X8" s="37" t="str">
+        <f t="shared" ref="X8" si="14">IF(X7=0," ",IF($C$8=X7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="Y8" s="37" t="str">
+        <f t="shared" ref="Y8" si="15">IF(Y7=0," ",IF($C$8=Y7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="Z8" s="37" t="str">
+        <f t="shared" ref="Z8" si="16">IF(Z7=0," ",IF($C$8=Z7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="AA8" s="37" t="str">
+        <f t="shared" ref="AA8:AB8" si="17">IF(AA7=0," ",IF($C$8=AA7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="AB8" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>P</v>
+      </c>
+      <c r="AC8" s="37" t="str">
+        <f t="shared" ref="AC8" si="18">IF(AC7=0," ",IF($C$8=AC7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="AD8" s="37" t="str">
+        <f t="shared" ref="AD8" si="19">IF(AD7=0," ",IF($C$8=AD7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="AE8" s="37" t="str">
+        <f t="shared" ref="AE8" si="20">IF(AE7=0," ",IF($C$8=AE7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="AF8" s="37" t="str">
+        <f t="shared" ref="AF8" si="21">IF(AF7=0," ",IF($C$8=AF7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="AG8" s="37" t="str">
+        <f t="shared" ref="AG8" si="22">IF(AG7=0," ",IF($C$8=AG7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="AH8" s="37" t="str">
+        <f t="shared" ref="AH8" si="23">IF(AH7=0," ",IF($C$8=AH7,"A","P"))</f>
+        <v>P</v>
       </c>
       <c r="AI8" s="33">
         <f>COUNTIF(D8:AH8, "P")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ8" s="33">
         <f>COUNTIF(D8:AH8, "A")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="43" t="s">
         <v>30</v>
@@ -10733,96 +10900,137 @@
       <c r="C9" s="88">
         <v>1</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH9" s="42" t="s">
-        <v>30</v>
+      <c r="D9" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=$D$7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E9" s="37" t="str">
+        <f t="shared" ref="E9:AH9" si="24">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="G9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="H9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="I9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="J9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="K9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>A</v>
+      </c>
+      <c r="L9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="M9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="N9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="O9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="P9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="Q9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="R9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>A</v>
+      </c>
+      <c r="S9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="T9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="U9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="V9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="W9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="X9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="Y9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>A</v>
+      </c>
+      <c r="Z9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="AA9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="AB9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="AC9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="AD9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="AE9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="AF9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>A</v>
+      </c>
+      <c r="AG9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
+      </c>
+      <c r="AH9" s="37" t="str">
+        <f t="shared" si="24"/>
+        <v>P</v>
       </c>
       <c r="AI9" s="33">
         <f>COUNTIF(D9:AH9,"P")</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ9" s="33">
         <f>COUNTIF(D9:AH9, "A")</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL9" s="43" t="s">
         <v>38</v>
@@ -10891,95 +11099,136 @@
       <c r="C10" s="88">
         <v>1</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH10" s="42" t="s">
-        <v>30</v>
+      <c r="D10" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E10" s="37" t="str">
+        <f t="shared" ref="E10:AH10" si="25">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="G10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="H10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="I10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="J10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="K10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>A</v>
+      </c>
+      <c r="L10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="M10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="N10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="O10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="P10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="Q10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="R10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>A</v>
+      </c>
+      <c r="S10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="T10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="U10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="V10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="W10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="X10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="Y10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>A</v>
+      </c>
+      <c r="Z10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="AA10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="AB10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="AC10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="AD10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="AE10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="AF10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>A</v>
+      </c>
+      <c r="AG10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
+      </c>
+      <c r="AH10" s="37" t="str">
+        <f t="shared" si="25"/>
+        <v>P</v>
       </c>
       <c r="AI10" s="33">
         <f>COUNTIF(D10:AH10, "P")</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ10" s="33">
-        <f t="shared" ref="AJ10:AJ22" si="4">COUNTIF(D10:AH10, "A")</f>
+        <f t="shared" ref="AJ10:AJ22" si="26">COUNTIF(D10:AH10, "A")</f>
         <v>5</v>
       </c>
       <c r="AL10" s="42" t="s">
@@ -11049,96 +11298,137 @@
       <c r="C11" s="88">
         <v>1</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="44"/>
-      <c r="L11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="41"/>
-      <c r="S11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH11" s="42" t="s">
-        <v>30</v>
+      <c r="D11" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E11" s="37" t="str">
+        <f t="shared" ref="E11:AH11" si="27">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="G11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="H11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="I11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="J11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="K11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="L11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="M11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="N11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="O11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="P11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="Q11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="R11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="S11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="T11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="U11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="V11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="W11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="X11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="Y11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="Z11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="AA11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="AB11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="AC11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="AD11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="AE11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="AF11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="AG11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
+      </c>
+      <c r="AH11" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>P</v>
       </c>
       <c r="AI11" s="33">
-        <f t="shared" ref="AI11" si="5">COUNTIF(D11:AH11,"P")</f>
-        <v>23</v>
+        <f t="shared" ref="AI11" si="28">COUNTIF(D11:AH11,"P")</f>
+        <v>26</v>
       </c>
       <c r="AJ11" s="33">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
       <c r="AL11" s="42" t="s">
         <v>30</v>
@@ -11207,96 +11497,137 @@
       <c r="C12" s="88">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH12" s="42" t="s">
-        <v>30</v>
+      <c r="D12" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E12" s="37" t="str">
+        <f t="shared" ref="E12:AH12" si="29">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="G12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="H12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="I12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="J12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="K12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>A</v>
+      </c>
+      <c r="L12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="M12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="N12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="O12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="P12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="Q12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="R12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>A</v>
+      </c>
+      <c r="S12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="T12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="U12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="V12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="W12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="X12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="Y12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>A</v>
+      </c>
+      <c r="Z12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AA12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AB12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AC12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AD12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AE12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AF12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>A</v>
+      </c>
+      <c r="AG12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
+      </c>
+      <c r="AH12" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>P</v>
       </c>
       <c r="AI12" s="33">
         <f>COUNTIF(D12:AH12, "P")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AJ12" s="33">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:57" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -11309,96 +11640,137 @@
       <c r="C13" s="88">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE13" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH13" s="42" t="s">
-        <v>30</v>
+      <c r="D13" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E13" s="37" t="str">
+        <f t="shared" ref="E13:AH13" si="30">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="G13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="H13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="I13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="J13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="K13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>A</v>
+      </c>
+      <c r="L13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="M13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="N13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="O13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="P13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="Q13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="R13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>A</v>
+      </c>
+      <c r="S13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="T13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="U13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="V13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="W13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="X13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="Y13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>A</v>
+      </c>
+      <c r="Z13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="AA13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="AB13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="AC13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="AD13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="AE13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="AF13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>A</v>
+      </c>
+      <c r="AG13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
+      </c>
+      <c r="AH13" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>P</v>
       </c>
       <c r="AI13" s="33">
-        <f t="shared" ref="AI13" si="6">COUNTIF(D13:AH13,"P")</f>
-        <v>22</v>
+        <f t="shared" ref="AI13" si="31">COUNTIF(D13:AH13,"P")</f>
+        <v>26</v>
       </c>
       <c r="AJ13" s="33">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:57" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -11411,96 +11783,137 @@
       <c r="C14" s="88">
         <v>1</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH14" s="42" t="s">
-        <v>30</v>
+      <c r="D14" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E14" s="37" t="str">
+        <f t="shared" ref="E14:AH14" si="32">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="G14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="H14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="I14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="J14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="K14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>A</v>
+      </c>
+      <c r="L14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="M14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="N14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="O14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="P14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="Q14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="R14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>A</v>
+      </c>
+      <c r="S14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="T14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="U14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="V14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="W14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="X14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="Y14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>A</v>
+      </c>
+      <c r="Z14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="AA14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="AB14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="AC14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="AD14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="AE14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="AF14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>A</v>
+      </c>
+      <c r="AG14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
+      </c>
+      <c r="AH14" s="37" t="str">
+        <f t="shared" si="32"/>
+        <v>P</v>
       </c>
       <c r="AI14" s="33">
-        <f t="shared" ref="AI14" si="7">COUNTIF(D14:AH14, "P")</f>
-        <v>22</v>
+        <f t="shared" ref="AI14" si="33">COUNTIF(D14:AH14, "P")</f>
+        <v>26</v>
       </c>
       <c r="AJ14" s="33">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:57" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -11513,95 +11926,136 @@
       <c r="C15" s="88">
         <v>1</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="W15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH15" s="42" t="s">
-        <v>30</v>
+      <c r="D15" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E15" s="37" t="str">
+        <f t="shared" ref="E15:AH15" si="34">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="G15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="H15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="I15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="J15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="K15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>A</v>
+      </c>
+      <c r="L15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="M15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="N15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="O15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="P15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="Q15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="R15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>A</v>
+      </c>
+      <c r="S15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="T15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="U15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="V15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="W15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="X15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="Y15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>A</v>
+      </c>
+      <c r="Z15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="AA15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="AB15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="AC15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="AD15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="AE15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="AF15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>A</v>
+      </c>
+      <c r="AG15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
+      </c>
+      <c r="AH15" s="37" t="str">
+        <f t="shared" si="34"/>
+        <v>P</v>
       </c>
       <c r="AI15" s="33">
-        <f t="shared" ref="AI15" si="8">COUNTIF(D15:AH15,"P")</f>
-        <v>21</v>
+        <f t="shared" ref="AI15" si="35">COUNTIF(D15:AH15,"P")</f>
+        <v>26</v>
       </c>
       <c r="AJ15" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
     </row>
@@ -11615,96 +12069,137 @@
       <c r="C16" s="88">
         <v>1</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="44"/>
-      <c r="S16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH16" s="42" t="s">
-        <v>30</v>
+      <c r="D16" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E16" s="37" t="str">
+        <f t="shared" ref="E16:AH16" si="36">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="G16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="H16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="I16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="J16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="K16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>A</v>
+      </c>
+      <c r="L16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="M16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="N16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="O16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="P16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="Q16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="R16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>A</v>
+      </c>
+      <c r="S16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="T16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="U16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="V16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="W16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="X16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="Y16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>A</v>
+      </c>
+      <c r="Z16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="AA16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="AB16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="AC16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="AD16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="AE16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="AF16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>A</v>
+      </c>
+      <c r="AG16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
+      </c>
+      <c r="AH16" s="37" t="str">
+        <f t="shared" si="36"/>
+        <v>P</v>
       </c>
       <c r="AI16" s="33">
-        <f t="shared" ref="AI16" si="9">COUNTIF(D16:AH16, "P")</f>
-        <v>22</v>
+        <f t="shared" ref="AI16" si="37">COUNTIF(D16:AH16, "P")</f>
+        <v>26</v>
       </c>
       <c r="AJ16" s="33">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -11717,95 +12212,136 @@
       <c r="C17" s="88">
         <v>1</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="W17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH17" s="42" t="s">
-        <v>30</v>
+      <c r="D17" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E17" s="37" t="str">
+        <f t="shared" ref="E17:AH17" si="38">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="G17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="H17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="I17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="J17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="K17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>A</v>
+      </c>
+      <c r="L17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="M17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="N17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="O17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="P17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="Q17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="R17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>A</v>
+      </c>
+      <c r="S17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="T17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="U17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="V17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="W17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="X17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="Y17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>A</v>
+      </c>
+      <c r="Z17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="AA17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="AB17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="AC17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="AD17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="AE17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="AF17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>A</v>
+      </c>
+      <c r="AG17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
+      </c>
+      <c r="AH17" s="37" t="str">
+        <f t="shared" si="38"/>
+        <v>P</v>
       </c>
       <c r="AI17" s="33">
-        <f t="shared" ref="AI17" si="10">COUNTIF(D17:AH17,"P")</f>
-        <v>21</v>
+        <f t="shared" ref="AI17" si="39">COUNTIF(D17:AH17,"P")</f>
+        <v>26</v>
       </c>
       <c r="AJ17" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
     </row>
@@ -11819,98 +12355,137 @@
       <c r="C18" s="88">
         <v>1</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="U18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF18" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH18" s="42" t="s">
-        <v>30</v>
+      <c r="D18" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E18" s="37" t="str">
+        <f t="shared" ref="E18:AH18" si="40">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="G18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="H18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="I18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="J18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="K18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>A</v>
+      </c>
+      <c r="L18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="M18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="N18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="O18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="P18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="Q18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="R18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>A</v>
+      </c>
+      <c r="S18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="T18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="U18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="V18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="W18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="X18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="Y18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>A</v>
+      </c>
+      <c r="Z18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="AA18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="AB18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="AC18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="AD18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="AE18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="AF18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>A</v>
+      </c>
+      <c r="AG18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
+      </c>
+      <c r="AH18" s="37" t="str">
+        <f t="shared" si="40"/>
+        <v>P</v>
       </c>
       <c r="AI18" s="33">
-        <f t="shared" ref="AI18" si="11">COUNTIF(D18:AH18, "P")</f>
-        <v>23</v>
+        <f t="shared" ref="AI18" si="41">COUNTIF(D18:AH18, "P")</f>
+        <v>26</v>
       </c>
       <c r="AJ18" s="33">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -11923,95 +12498,136 @@
       <c r="C19" s="88">
         <v>1</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="44"/>
-      <c r="S19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="V19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH19" s="42" t="s">
-        <v>30</v>
+      <c r="D19" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E19" s="37" t="str">
+        <f t="shared" ref="E19:AH19" si="42">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="G19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="H19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="I19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="J19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="K19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>A</v>
+      </c>
+      <c r="L19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="M19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="N19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="O19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="P19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="Q19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="R19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>A</v>
+      </c>
+      <c r="S19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="T19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="U19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="V19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="W19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="X19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="Y19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>A</v>
+      </c>
+      <c r="Z19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="AA19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="AB19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="AC19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="AD19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="AE19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="AF19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>A</v>
+      </c>
+      <c r="AG19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
+      </c>
+      <c r="AH19" s="37" t="str">
+        <f t="shared" si="42"/>
+        <v>P</v>
       </c>
       <c r="AI19" s="33">
-        <f t="shared" ref="AI19" si="12">COUNTIF(D19:AH19,"P")</f>
-        <v>21</v>
+        <f t="shared" ref="AI19" si="43">COUNTIF(D19:AH19,"P")</f>
+        <v>26</v>
       </c>
       <c r="AJ19" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
     </row>
@@ -12025,96 +12641,137 @@
       <c r="C20" s="88">
         <v>1</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="44"/>
-      <c r="S20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD20" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH20" s="42" t="s">
-        <v>30</v>
+      <c r="D20" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E20" s="37" t="str">
+        <f t="shared" ref="E20:AH20" si="44">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="G20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="H20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="I20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="J20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="K20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>A</v>
+      </c>
+      <c r="L20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="M20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="N20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="O20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="P20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="Q20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="R20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>A</v>
+      </c>
+      <c r="S20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="T20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="U20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="V20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="W20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="X20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="Y20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>A</v>
+      </c>
+      <c r="Z20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="AA20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="AB20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="AC20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="AD20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="AE20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="AF20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>A</v>
+      </c>
+      <c r="AG20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
+      </c>
+      <c r="AH20" s="37" t="str">
+        <f t="shared" si="44"/>
+        <v>P</v>
       </c>
       <c r="AI20" s="33">
-        <f t="shared" ref="AI20" si="13">COUNTIF(D20:AH20, "P")</f>
-        <v>22</v>
+        <f t="shared" ref="AI20" si="45">COUNTIF(D20:AH20, "P")</f>
+        <v>26</v>
       </c>
       <c r="AJ20" s="33">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -12127,95 +12784,136 @@
       <c r="C21" s="88">
         <v>1</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="R21" s="44"/>
-      <c r="S21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="V21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA21" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH21" s="42" t="s">
-        <v>30</v>
+      <c r="D21" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E21" s="37" t="str">
+        <f t="shared" ref="E21:AH21" si="46">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="G21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="H21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="I21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="J21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="K21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>A</v>
+      </c>
+      <c r="L21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="M21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="N21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="O21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="P21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="Q21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="R21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>A</v>
+      </c>
+      <c r="S21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="T21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="U21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="V21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="W21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="X21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="Y21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>A</v>
+      </c>
+      <c r="Z21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="AA21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="AB21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="AC21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="AD21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="AE21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="AF21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>A</v>
+      </c>
+      <c r="AG21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
+      </c>
+      <c r="AH21" s="37" t="str">
+        <f t="shared" si="46"/>
+        <v>P</v>
       </c>
       <c r="AI21" s="33">
         <f>COUNTIF(D21:AH21,"P")</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ21" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
     </row>
@@ -12229,96 +12927,137 @@
       <c r="C22" s="89">
         <v>1</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R22" s="44"/>
-      <c r="S22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="T22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="U22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="V22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="X22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH22" s="42" t="s">
-        <v>30</v>
+      <c r="D22" s="37" t="str">
+        <f>IF($D$7=0," ",IF($C$8=D7,"A","P"))</f>
+        <v>A</v>
+      </c>
+      <c r="E22" s="37" t="str">
+        <f t="shared" ref="E22:AH22" si="47">IF($D$7=0," ",IF($C$8=E7,"A","P"))</f>
+        <v>P</v>
+      </c>
+      <c r="F22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="G22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="H22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="I22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="J22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="K22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>A</v>
+      </c>
+      <c r="L22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="M22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="N22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="O22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="P22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="Q22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="R22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>A</v>
+      </c>
+      <c r="S22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="T22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="U22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="V22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="W22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="X22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="Y22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>A</v>
+      </c>
+      <c r="Z22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="AA22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="AB22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="AC22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="AD22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="AE22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="AF22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>A</v>
+      </c>
+      <c r="AG22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
+      </c>
+      <c r="AH22" s="37" t="str">
+        <f t="shared" si="47"/>
+        <v>P</v>
       </c>
       <c r="AI22" s="33">
         <f>COUNTIF(D22:AH22, "P")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ22" s="33">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
@@ -12437,7 +13176,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A6:AH7">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12449,7 +13188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:AI5">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12461,7 +13200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12473,34 +13212,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL6:BE11">
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="26" priority="14">
       <formula>AL$4="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>AL$4="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>IF(AL5,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA6">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>AO$6="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:AH22">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>D$4="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>D$4="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>IF(D7,"SUN")</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="T8:T22">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>H$6="A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14395,18 +15140,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AG5 C6:J19 L6:AG19 K6:K21">
-    <cfRule type="expression" dxfId="56" priority="155">
+    <cfRule type="expression" dxfId="68" priority="155">
       <formula>C$4="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="156">
+    <cfRule type="expression" dxfId="67" priority="156">
       <formula>C$4="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="157">
+    <cfRule type="expression" dxfId="66" priority="157">
       <formula>IF(C4,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="53" priority="153">
+    <cfRule type="expression" dxfId="65" priority="153">
       <formula>G$6="A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16161,10 +16906,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G19 N5:N19 U5:U19 AB5:AB19">
-    <cfRule type="expression" dxfId="52" priority="66">
+    <cfRule type="expression" dxfId="64" priority="66">
       <formula>G$5="P"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="67">
+    <cfRule type="expression" dxfId="63" priority="67">
       <formula>G$4="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18019,12 +18764,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G19 N5:N19 U5:U19">
-    <cfRule type="expression" dxfId="50" priority="64">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>G$5="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB19">
-    <cfRule type="expression" dxfId="49" priority="65">
+    <cfRule type="expression" dxfId="61" priority="65">
       <formula>AB$5="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19849,18 +20594,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:H19 AA5:AD19">
-    <cfRule type="expression" dxfId="48" priority="167">
+    <cfRule type="expression" dxfId="60" priority="167">
       <formula>#REF!="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="168">
+    <cfRule type="expression" dxfId="59" priority="168">
       <formula>#REF!="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="169">
+    <cfRule type="expression" dxfId="58" priority="169">
       <formula>IF(F4,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG19">
-    <cfRule type="expression" dxfId="45" priority="62">
+    <cfRule type="expression" dxfId="57" priority="62">
       <formula>#REF!="SUN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25383,13 +26128,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AD19 AG5:AG19">
-    <cfRule type="expression" dxfId="44" priority="176">
+    <cfRule type="expression" dxfId="56" priority="176">
       <formula>#REF!="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="177">
+    <cfRule type="expression" dxfId="55" priority="177">
       <formula>#REF!="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="178">
+    <cfRule type="expression" dxfId="54" priority="178">
       <formula>IF(AD4,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27244,13 +27989,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:Y19">
-    <cfRule type="expression" dxfId="41" priority="184">
+    <cfRule type="expression" dxfId="53" priority="184">
       <formula>#REF!="SUN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="185">
+    <cfRule type="expression" dxfId="52" priority="185">
       <formula>#REF!="A"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="186">
+    <cfRule type="expression" dxfId="51" priority="186">
       <formula>IF(Y4,"SUN")</formula>
     </cfRule>
   </conditionalFormatting>
